--- a/output/0/tRNA-Gln-TTG-3-1.xlsx
+++ b/output/0/tRNA-Gln-TTG-3-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26311425</t>
-  </si>
-  <si>
-    <t>26311448</t>
+    <t>26311976</t>
+  </si>
+  <si>
+    <t>26311999</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>26311445</t>
+    <t>26311996</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -50,28 +50,28 @@
     <t>96% (68)</t>
   </si>
   <si>
-    <t>35% (38)</t>
+    <t>41% (41)</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>67</t>
+    <t>68</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>26311427</t>
-  </si>
-  <si>
-    <t>26311450</t>
+    <t>26311978</t>
+  </si>
+  <si>
+    <t>26312001</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>26311430</t>
+    <t>26311981</t>
   </si>
   <si>
     <t>ATCCGAGTTCAAATCTCGGT</t>
@@ -83,22 +83,22 @@
     <t>84% (61)</t>
   </si>
   <si>
-    <t>18% (29)</t>
+    <t>22% (31)</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>26311428</t>
-  </si>
-  <si>
-    <t>26311451</t>
-  </si>
-  <si>
-    <t>26311431</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>26311979</t>
+  </si>
+  <si>
+    <t>26312002</t>
+  </si>
+  <si>
+    <t>26311982</t>
   </si>
   <si>
     <t>GATCCGAGTTCAAATCTCGG</t>
@@ -110,19 +110,16 @@
     <t>98% (70)</t>
   </si>
   <si>
-    <t>5% (17)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>26311454</t>
-  </si>
-  <si>
-    <t>26311434</t>
+    <t>9% (21)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>26312005</t>
+  </si>
+  <si>
+    <t>26311985</t>
   </si>
   <si>
     <t>AGCGATCCGAGTTCAAATCT</t>
@@ -137,16 +134,13 @@
     <t>6</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>26311433</t>
-  </si>
-  <si>
-    <t>26311456</t>
-  </si>
-  <si>
-    <t>26311453</t>
+    <t>26311984</t>
+  </si>
+  <si>
+    <t>26312007</t>
+  </si>
+  <si>
+    <t>26312004</t>
   </si>
   <si>
     <t>GAGATTTGAACTCGGATCGC</t>
@@ -155,22 +149,19 @@
     <t>32% (44)</t>
   </si>
   <si>
-    <t>22% (31)</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>26311465</t>
-  </si>
-  <si>
-    <t>26311488</t>
-  </si>
-  <si>
-    <t>26311468</t>
+    <t>26312016</t>
+  </si>
+  <si>
+    <t>26312039</t>
+  </si>
+  <si>
+    <t>26312019</t>
   </si>
   <si>
     <t>TGGTGTAATGGTTAGCACTC</t>
@@ -182,10 +173,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>26311491</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26312042</t>
   </si>
   <si>
     <t>GAGTGCTAACCATTACACCA</t>
@@ -194,19 +185,22 @@
     <t>92% (65)</t>
   </si>
   <si>
-    <t>14% (26)</t>
+    <t>25% (33)</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>26311469</t>
-  </si>
-  <si>
-    <t>26311492</t>
-  </si>
-  <si>
-    <t>26311489</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>26312020</t>
+  </si>
+  <si>
+    <t>26312043</t>
+  </si>
+  <si>
+    <t>26312040</t>
   </si>
   <si>
     <t>AGTGCTAACCATTACACCAT</t>
@@ -219,6 +213,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>79</t>
   </si>
 </sst>
 </file>
@@ -434,10 +431,10 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -454,7 +451,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -463,10 +460,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -478,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -487,16 +484,16 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -510,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -522,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -537,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
@@ -546,16 +543,16 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -569,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -581,10 +578,10 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -596,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -605,16 +602,16 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -628,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -640,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -655,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
@@ -664,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
         <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -687,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -699,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -714,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -723,16 +720,16 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>56</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
